--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -52,33 +52,33 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>broken</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -91,28 +91,31 @@
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>used</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>use</t>
+    <t>2</t>
   </si>
   <si>
     <t>like</t>
@@ -136,9 +139,6 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -148,13 +148,13 @@
     <t>loves</t>
   </si>
   <si>
-    <t>best</t>
+    <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fun</t>
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>49</v>
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7204301075268817</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.704225352112676</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.453125</v>
+        <v>0.53125</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6941747572815534</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.4492753623188406</v>
+        <v>0.340983606557377</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>416</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>804</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,31 +908,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.3295081967213115</v>
+        <v>0.2801724137931034</v>
       </c>
       <c r="L9">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="M9">
-        <v>402</v>
+        <v>196</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>818</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6216216216216216</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.3070301291248206</v>
+        <v>0.2572614107883817</v>
       </c>
       <c r="L10">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="M10">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>483</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +990,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.2676348547717842</v>
+        <v>0.1896024464831804</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>353</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1040,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4927536231884058</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C12">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.25</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L12">
         <v>30</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1090,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4698795180722892</v>
+        <v>0.472463768115942</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.1927710843373494</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4566929133858268</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.1865443425076453</v>
+        <v>0.08764241893076249</v>
       </c>
       <c r="L14">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>266</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1190,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3578947368421053</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.08150744960560911</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L15">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="M15">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1048</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,13 +1240,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3118811881188119</v>
+        <v>0.301980198019802</v>
       </c>
       <c r="C16">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1258,31 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>139</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16">
-        <v>0.027255029201817</v>
-      </c>
-      <c r="L16">
-        <v>42</v>
-      </c>
-      <c r="M16">
-        <v>42</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1499</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1290,13 +1266,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3046875</v>
+        <v>0.28125</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1308,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1316,13 +1292,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2938388625592417</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C18">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1334,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1342,13 +1318,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2474226804123711</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1360,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1368,13 +1344,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1795252225519288</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C20">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1386,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>553</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1394,13 +1370,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1772151898734177</v>
+        <v>0.195</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1412,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>260</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1420,13 +1396,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1739130434782609</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1438,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1446,13 +1422,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1645569620253164</v>
+        <v>0.1824925816023739</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="D23">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1464,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>264</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1472,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1401869158878505</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C24">
         <v>30</v>
@@ -1490,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>184</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1498,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1255506607929515</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1516,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>397</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1524,25 +1500,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1152737752161383</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>307</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1550,13 +1526,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08493150684931507</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1568,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1576,24 +1552,50 @@
         <v>33</v>
       </c>
       <c r="B28">
+        <v>0.1161048689138577</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>0.05766062602965404</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>35</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>36</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>0.03</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.97</v>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>572</v>
       </c>
     </row>
